--- a/ddj_1000/9 - Extras/2 - Technical info/DDJ Mappings - Version history.xlsx
+++ b/ddj_1000/9 - Extras/2 - Technical info/DDJ Mappings - Version history.xlsx
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>MacOS specific file</t>
-  </si>
-  <si>
-    <t>v7.0</t>
   </si>
   <si>
     <r>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>v6.1.4</t>
+  </si>
+  <si>
+    <t>v7.2</t>
   </si>
 </sst>
 </file>
@@ -771,7 +771,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>44</v>
@@ -789,10 +789,10 @@
         <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>46</v>
@@ -848,14 +848,14 @@
         <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="11"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -948,7 +948,7 @@
     </row>
     <row r="13" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -991,16 +991,16 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H17" s="11">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
